--- a/excel/VH_LOOKUP_index_match.xlsx
+++ b/excel/VH_LOOKUP_index_match.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\data_science_\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\ds\ds_materials\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D674EBF-97A9-4F5D-BB1E-29BA645D393F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,23 @@
     <sheet name="match" sheetId="5" r:id="rId8"/>
     <sheet name="index-match" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="110">
   <si>
     <t>NAME</t>
   </si>
@@ -378,11 +390,14 @@
   <si>
     <t>LOCATION</t>
   </si>
+  <si>
+    <t>IF(H2&lt;=60,"Need to improve","Keep up the good work")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -749,16 +764,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,9 +786,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -820,9 +826,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -892,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1065,21 +1071,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1141,9 +1147,9 @@
         <f>G2/F2*100</f>
         <v>72</v>
       </c>
-      <c r="I2" s="6" t="str">
-        <f>IF(H2&lt;=60,"Need to improve","Keep up the good work")</f>
-        <v>Keep up the good work</v>
+      <c r="I2" s="6"/>
+      <c r="J2" t="s">
+        <v>109</v>
       </c>
       <c r="K2" s="14">
         <f>MIN(B2:E2)</f>
@@ -1154,7 +1160,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1181,20 +1187,17 @@
         <f t="shared" ref="H3:H7" si="1">G3/F3*100</f>
         <v>85.5</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f t="shared" ref="I3:I7" si="2">IF(H3&lt;=60,"Need to improve","Keep up the good work")</f>
-        <v>Keep up the good work</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="K3" s="14">
-        <f t="shared" ref="K3:K7" si="3">MIN(B3:E3)</f>
+        <f t="shared" ref="K3:K7" si="2">MIN(B3:E3)</f>
         <v>67</v>
       </c>
       <c r="L3" s="15">
-        <f t="shared" ref="L3:L7" si="4">MAX(B3:E3)</f>
+        <f t="shared" ref="L3:L7" si="3">MAX(B3:E3)</f>
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1221,20 +1224,17 @@
         <f t="shared" si="1"/>
         <v>68.5</v>
       </c>
-      <c r="I4" s="6" t="str">
+      <c r="I4" s="6"/>
+      <c r="K4" s="14">
         <f t="shared" si="2"/>
-        <v>Keep up the good work</v>
-      </c>
-      <c r="K4" s="14">
+        <v>43</v>
+      </c>
+      <c r="L4" s="15">
         <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="L4" s="15">
-        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1261,20 +1261,17 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="I5" s="6" t="str">
+      <c r="I5" s="6"/>
+      <c r="K5" s="14">
         <f t="shared" si="2"/>
-        <v>Need to improve</v>
-      </c>
-      <c r="K5" s="14">
+        <v>45</v>
+      </c>
+      <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="L5" s="15">
-        <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1301,20 +1298,17 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="I6" s="6" t="str">
+      <c r="I6" s="6"/>
+      <c r="K6" s="14">
         <f t="shared" si="2"/>
-        <v>Need to improve</v>
-      </c>
-      <c r="K6" s="14">
+        <v>32</v>
+      </c>
+      <c r="L6" s="15">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="L6" s="15">
-        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1341,21 +1335,18 @@
         <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
-      <c r="I7" s="9" t="str">
+      <c r="I7" s="9"/>
+      <c r="K7" s="16">
         <f t="shared" si="2"/>
-        <v>Keep up the good work</v>
-      </c>
-      <c r="K7" s="16">
+        <v>67</v>
+      </c>
+      <c r="L7" s="17">
         <f t="shared" si="3"/>
-        <v>67</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1384,52 +1375,52 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="str">
         <f>HLOOKUP(A1,A1:I7,6,FALSE)</f>
         <v>Tushar</v>
       </c>
       <c r="B16" s="13">
-        <f t="shared" ref="B16:H16" si="5">HLOOKUP(B1,B1:J7,6,)</f>
+        <f t="shared" ref="B16:H16" si="4">HLOOKUP(B1,B1:J7,6,)</f>
         <v>32</v>
       </c>
       <c r="C16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="E16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
       <c r="F16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="G16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="H16" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="I16" s="13" t="str">
+      <c r="I16" s="13">
         <f>HLOOKUP(I1,I1:Q7,6,)</f>
-        <v>Need to improve</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
@@ -1458,42 +1449,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="21" t="str">
         <f>VLOOKUP(A3,A2:I7,1,FALSE)</f>
         <v>Raj</v>
       </c>
       <c r="B23" s="22">
-        <f t="shared" ref="B23:H23" si="6">VLOOKUP(B3,B2:J7,1,FALSE)</f>
+        <f t="shared" ref="B23:H23" si="5">VLOOKUP(B3,B2:J7,1,FALSE)</f>
         <v>67</v>
       </c>
       <c r="C23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="D23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="E23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="F23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="G23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="H23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>85.5</v>
       </c>
-      <c r="I23" s="23" t="str">
+      <c r="I23" s="23" t="e">
         <f>VLOOKUP(I3,I2:Q7,1,FALSE)</f>
-        <v>Keep up the good work</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -1503,40 +1494,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="30"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
         <v>25</v>
       </c>
@@ -1552,20 +1543,20 @@
       <c r="E3" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>56815</v>
       </c>
@@ -1596,7 +1587,7 @@
         <v>Cairo</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="33">
         <v>51186</v>
       </c>
@@ -1613,7 +1604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>51511</v>
       </c>
@@ -1630,7 +1621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>50890</v>
       </c>
@@ -1654,7 +1645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>53700</v>
       </c>
@@ -1678,7 +1669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>55879</v>
       </c>
@@ -1695,7 +1686,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>59848</v>
       </c>
@@ -1719,7 +1710,7 @@
         <v>Thomas Bettle</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>58369</v>
       </c>
@@ -1736,7 +1727,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>50217</v>
       </c>
@@ -1759,7 +1750,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>50695</v>
       </c>
@@ -1783,7 +1774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>59673</v>
       </c>
@@ -1804,7 +1795,7 @@
         <v>Christopher Fallon</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>52130</v>
       </c>
@@ -1820,28 +1811,28 @@
       <c r="E15" s="35">
         <v>32</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="I15" s="42" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
-      <c r="H16" s="47">
+      <c r="H16" s="42">
         <v>12566</v>
       </c>
-      <c r="I16" s="47" t="str">
+      <c r="I16" s="42" t="str">
         <f>INDEX(B3:B15,MATCH(H16,D3:D15,0))</f>
         <v>Thomas Davies</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
         <v>72</v>
       </c>
@@ -1853,14 +1844,14 @@
         <v>Williamr Black</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>73</v>
       </c>
@@ -1869,7 +1860,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -1885,44 +1876,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="35">
         <v>13836</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="35">
         <v>25</v>
       </c>
       <c r="F2" t="s">
@@ -1932,157 +1923,157 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="35">
         <v>11771</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="35">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="35">
         <v>13046</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="35">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="35">
         <v>18276</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="35">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="35">
         <v>19327</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="35">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="35">
         <v>18996</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="35">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="35">
         <v>10387</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="35">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="35">
         <v>12566</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="35">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="35">
         <v>16406</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="35">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="35">
         <v>15784</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="35">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="35">
         <v>10959</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="35">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="35">
         <v>14562</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="35">
         <v>32</v>
       </c>
     </row>
@@ -2092,158 +2083,158 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="33">
         <v>56815</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="33">
         <v>51186</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="33">
         <v>51511</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="33">
         <v>50890</v>
       </c>
-      <c r="F1" s="43">
+      <c r="F1" s="33">
         <v>53700</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="35">
         <v>13836</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="35">
         <v>11771</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="35">
         <v>13046</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="35">
         <v>18276</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="35">
         <v>19327</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="35">
         <v>25</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="35">
         <v>32</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="35">
         <v>35</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="35">
         <v>32</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="35">
         <v>26</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2251,14 +2242,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,28 +2257,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
@@ -2302,7 +2293,7 @@
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
@@ -2337,7 +2328,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
@@ -2372,7 +2363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>37</v>
       </c>
@@ -2407,7 +2398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
         <v>42</v>
       </c>
@@ -2442,7 +2433,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>43</v>
       </c>
@@ -2477,7 +2468,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
@@ -2512,7 +2503,7 @@
         <v>101500</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -2525,7 +2516,7 @@
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>45</v>
       </c>
@@ -2542,7 +2533,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="25"/>
       <c r="B10" s="24" t="s">
         <v>104</v>
@@ -2559,7 +2550,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>46</v>
       </c>
@@ -2579,7 +2570,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -2592,7 +2583,7 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>47</v>
       </c>
@@ -2607,7 +2598,7 @@
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2620,7 +2611,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>46</v>
       </c>
@@ -2641,16 +2632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="B10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>74</v>
       </c>
@@ -2658,7 +2649,7 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>75</v>
       </c>
@@ -2666,7 +2657,7 @@
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +2665,7 @@
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="38" t="s">
         <v>77</v>
       </c>
@@ -2682,7 +2673,7 @@
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>78</v>
       </c>
@@ -2690,7 +2681,7 @@
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>79</v>
       </c>
@@ -2698,7 +2689,7 @@
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="38" t="s">
         <v>80</v>
       </c>
@@ -2706,13 +2697,13 @@
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="str">
@@ -2721,7 +2712,7 @@
       </c>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>81</v>
       </c>
@@ -2737,80 +2728,80 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <selection activeCell="B11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="B3" s="38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="30"/>
       <c r="B4" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="B6" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
       <c r="B7" s="38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="30"/>
       <c r="B8" s="38" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="38" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="39"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
     </row>
@@ -2820,25 +2811,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
         <v>93</v>
       </c>
@@ -2846,7 +2837,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="38">
         <v>9584423</v>
       </c>
@@ -2854,7 +2845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="38">
         <v>5034521</v>
       </c>
@@ -2862,7 +2853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="38">
         <v>9543669</v>
       </c>
@@ -2870,7 +2861,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="38">
         <v>9995553</v>
       </c>
@@ -2878,7 +2869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="38">
         <v>8595323</v>
       </c>
@@ -2886,7 +2877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="38">
         <v>9359305</v>
       </c>
@@ -2894,11 +2885,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>100</v>
       </c>
@@ -2906,13 +2897,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="39"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
     </row>
